--- a/Data/collapsed database manual cases/nuevoleon_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/nuevoleon_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/nuevoleon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{BB0A70CB-FDA0-E745-8530-D9A4CA62B79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F88C209-0264-BA46-973F-D3D0E29F74C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94CAF5-504E-E54F-A19F-EA330ADA09AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25720" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3583" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="808">
   <si>
     <t>uniqueid</t>
   </si>
@@ -2426,6 +2426,27 @@
   </si>
   <si>
     <t>https://www.sabinashidalgo.net/artlculos/a-proposito-de/4311-a-propo-de-saqueo-sp-1585293701</t>
+  </si>
+  <si>
+    <t>PT_PVEM_MORENA_PANAL</t>
+  </si>
+  <si>
+    <t>HUMBERTO MEDINA QUIROGA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL QUIROGA TREVINO</t>
+  </si>
+  <si>
+    <t>RAUL KARR VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ANDRES CONCEPCION MIJES LLOVERA</t>
+  </si>
+  <si>
+    <t>ORLANDO RAMOS GARCIA</t>
+  </si>
+  <si>
+    <t>PT_PVEM_MORENA</t>
   </si>
 </sst>
 </file>
@@ -2533,7 +2554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2559,6 +2580,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2574,10 +2596,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2868,10 +2886,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S309"/>
+  <dimension ref="A1:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E36" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H297" sqref="H297:I297"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F322" sqref="F322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17621,6 +17639,146 @@
         <v>47</v>
       </c>
     </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>19010</v>
+      </c>
+      <c r="B310">
+        <v>2024</v>
+      </c>
+      <c r="C310" t="s">
+        <v>17</v>
+      </c>
+      <c r="E310" t="s">
+        <v>801</v>
+      </c>
+      <c r="F310" t="s">
+        <v>802</v>
+      </c>
+      <c r="H310" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>19012</v>
+      </c>
+      <c r="B311">
+        <v>2024</v>
+      </c>
+      <c r="C311" t="s">
+        <v>17</v>
+      </c>
+      <c r="E311" t="s">
+        <v>801</v>
+      </c>
+      <c r="F311" t="s">
+        <v>803</v>
+      </c>
+      <c r="H311" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>19013</v>
+      </c>
+      <c r="B312">
+        <v>2024</v>
+      </c>
+      <c r="C312" t="s">
+        <v>17</v>
+      </c>
+      <c r="E312" t="s">
+        <v>801</v>
+      </c>
+      <c r="F312" t="s">
+        <v>804</v>
+      </c>
+      <c r="H312" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>19021</v>
+      </c>
+      <c r="B313">
+        <v>2024</v>
+      </c>
+      <c r="C313" t="s">
+        <v>17</v>
+      </c>
+      <c r="E313" t="s">
+        <v>801</v>
+      </c>
+      <c r="F313" t="s">
+        <v>805</v>
+      </c>
+      <c r="H313" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>19024</v>
+      </c>
+      <c r="B314">
+        <v>2024</v>
+      </c>
+      <c r="C314" t="s">
+        <v>17</v>
+      </c>
+      <c r="E314" t="s">
+        <v>801</v>
+      </c>
+      <c r="F314" t="s">
+        <v>371</v>
+      </c>
+      <c r="H314" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>19035</v>
+      </c>
+      <c r="B315">
+        <v>2024</v>
+      </c>
+      <c r="C315" t="s">
+        <v>17</v>
+      </c>
+      <c r="E315" t="s">
+        <v>801</v>
+      </c>
+      <c r="F315" t="s">
+        <v>806</v>
+      </c>
+      <c r="H315" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>19050</v>
+      </c>
+      <c r="B316">
+        <v>2024</v>
+      </c>
+      <c r="C316" t="s">
+        <v>17</v>
+      </c>
+      <c r="E316" t="s">
+        <v>801</v>
+      </c>
+      <c r="F316" t="s">
+        <v>703</v>
+      </c>
+      <c r="H316" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S309" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">

--- a/Data/collapsed database manual cases/nuevoleon_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/nuevoleon_collapsed_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94CAF5-504E-E54F-A19F-EA330ADA09AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E56E831-A73B-BA42-BA62-125851ECAEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3611" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="827">
   <si>
     <t>uniqueid</t>
   </si>
@@ -2447,6 +2447,63 @@
   </si>
   <si>
     <t>PT_PVEM_MORENA</t>
+  </si>
+  <si>
+    <t>KARINA LISSETTE VILLARREAL RAMIREZ</t>
+  </si>
+  <si>
+    <t>ERNESTO JOSE QUINTANILLA VILLARREAL</t>
+  </si>
+  <si>
+    <t>MAYRA ABREGO MONTEMAYOR</t>
+  </si>
+  <si>
+    <t>HERIBERTO TREVI√ëO CANTU</t>
+  </si>
+  <si>
+    <t>HERNAN CORTES LOZANO</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO GUERRERO GARZA</t>
+  </si>
+  <si>
+    <t>SANTANA MARTINEZ PE√ëA</t>
+  </si>
+  <si>
+    <t>JESUS PLACIDO RODRIGUEZ TREVI√ëO</t>
+  </si>
+  <si>
+    <t>PRI_PRD</t>
+  </si>
+  <si>
+    <t>EVA PATRICIA SALAZAR MARROQUIN</t>
+  </si>
+  <si>
+    <t>MARIA FRANCISCA ARGUELLO QUINONES</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>https://portalanterior.ieepcnl.mx/sesiones/2018/acuerdos/20180305-extraordinaria-CEE-CG-38.pdf</t>
+  </si>
+  <si>
+    <t>https://votoinformado.ieepcnl.mx/sitiocandidato.aspx?id=5&amp;ci=False&amp;cpp=True</t>
+  </si>
+  <si>
+    <t>https://sil.gobernacion.gob.mx/Librerias/pp_PerfilLegislador.php?Referencia=9217742</t>
+  </si>
+  <si>
+    <t>https://portalanterior.ieepcnl.mx/sesiones/2018/acuerdos/20180202-extraordinaria-17.pdf</t>
+  </si>
+  <si>
+    <t>https://conoceles24.ieepcnl.mx/AyuntamientoDetalle/Index/1409?IdTipoEleccion=1&amp;tipo=PP</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2579,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2539,6 +2596,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF94DCF8"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2580,7 +2643,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2886,10 +2949,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S316"/>
+  <dimension ref="A1:S332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F322" sqref="F322"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H327" sqref="H327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17655,7 +17718,7 @@
       <c r="F310" t="s">
         <v>802</v>
       </c>
-      <c r="H310" s="17" t="s">
+      <c r="H310" s="4" t="s">
         <v>807</v>
       </c>
     </row>
@@ -17675,7 +17738,7 @@
       <c r="F311" t="s">
         <v>803</v>
       </c>
-      <c r="H311" s="17" t="s">
+      <c r="H311" s="4" t="s">
         <v>807</v>
       </c>
     </row>
@@ -17695,7 +17758,7 @@
       <c r="F312" t="s">
         <v>804</v>
       </c>
-      <c r="H312" s="17" t="s">
+      <c r="H312" s="4" t="s">
         <v>807</v>
       </c>
     </row>
@@ -17715,7 +17778,7 @@
       <c r="F313" t="s">
         <v>805</v>
       </c>
-      <c r="H313" s="17" t="s">
+      <c r="H313" s="4" t="s">
         <v>807</v>
       </c>
     </row>
@@ -17735,7 +17798,7 @@
       <c r="F314" t="s">
         <v>371</v>
       </c>
-      <c r="H314" s="17" t="s">
+      <c r="H314" s="4" t="s">
         <v>807</v>
       </c>
     </row>
@@ -17755,7 +17818,7 @@
       <c r="F315" t="s">
         <v>806</v>
       </c>
-      <c r="H315" s="17" t="s">
+      <c r="H315" s="4" t="s">
         <v>807</v>
       </c>
     </row>
@@ -17775,8 +17838,319 @@
       <c r="F316" t="s">
         <v>703</v>
       </c>
-      <c r="H316" s="17" t="s">
+      <c r="H316" s="4" t="s">
         <v>807</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>19001</v>
+      </c>
+      <c r="B317">
+        <v>2021</v>
+      </c>
+      <c r="E317" t="s">
+        <v>28</v>
+      </c>
+      <c r="F317" t="s">
+        <v>808</v>
+      </c>
+      <c r="H317" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I317" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>19009</v>
+      </c>
+      <c r="B318">
+        <v>2021</v>
+      </c>
+      <c r="E318" t="s">
+        <v>28</v>
+      </c>
+      <c r="F318" t="s">
+        <v>809</v>
+      </c>
+      <c r="H318" t="s">
+        <v>753</v>
+      </c>
+      <c r="I318" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>19010</v>
+      </c>
+      <c r="B319">
+        <v>2021</v>
+      </c>
+      <c r="E319" t="s">
+        <v>28</v>
+      </c>
+      <c r="F319" t="s">
+        <v>169</v>
+      </c>
+      <c r="H319" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="I319" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>19016</v>
+      </c>
+      <c r="B320">
+        <v>2021</v>
+      </c>
+      <c r="E320" t="s">
+        <v>28</v>
+      </c>
+      <c r="F320" t="s">
+        <v>810</v>
+      </c>
+      <c r="H320" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I320" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>19026</v>
+      </c>
+      <c r="B321">
+        <v>2021</v>
+      </c>
+      <c r="E321" t="s">
+        <v>28</v>
+      </c>
+      <c r="F321" t="s">
+        <v>392</v>
+      </c>
+      <c r="H321" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I321" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>19031</v>
+      </c>
+      <c r="B322">
+        <v>2021</v>
+      </c>
+      <c r="E322" t="s">
+        <v>28</v>
+      </c>
+      <c r="F322" t="s">
+        <v>811</v>
+      </c>
+      <c r="H322" t="s">
+        <v>19</v>
+      </c>
+      <c r="I322" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>19047</v>
+      </c>
+      <c r="B323">
+        <v>2021</v>
+      </c>
+      <c r="E323" t="s">
+        <v>28</v>
+      </c>
+      <c r="F323" t="s">
+        <v>812</v>
+      </c>
+      <c r="H323" t="s">
+        <v>813</v>
+      </c>
+      <c r="I323" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>19024</v>
+      </c>
+      <c r="B324">
+        <v>2021</v>
+      </c>
+      <c r="E324" t="s">
+        <v>814</v>
+      </c>
+      <c r="F324" t="s">
+        <v>371</v>
+      </c>
+      <c r="H324" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I324" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>19025</v>
+      </c>
+      <c r="B325">
+        <v>2021</v>
+      </c>
+      <c r="E325" t="s">
+        <v>814</v>
+      </c>
+      <c r="F325" t="s">
+        <v>382</v>
+      </c>
+      <c r="H325" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I325" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>19038</v>
+      </c>
+      <c r="B326">
+        <v>2021</v>
+      </c>
+      <c r="E326" t="s">
+        <v>814</v>
+      </c>
+      <c r="F326" t="s">
+        <v>815</v>
+      </c>
+      <c r="H326" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I326" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>19050</v>
+      </c>
+      <c r="B327">
+        <v>2021</v>
+      </c>
+      <c r="E327" t="s">
+        <v>814</v>
+      </c>
+      <c r="F327" t="s">
+        <v>703</v>
+      </c>
+      <c r="H327" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>19036</v>
+      </c>
+      <c r="B328">
+        <v>2021</v>
+      </c>
+      <c r="E328" t="s">
+        <v>285</v>
+      </c>
+      <c r="F328" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="H328" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>19042</v>
+      </c>
+      <c r="B329">
+        <v>2021</v>
+      </c>
+      <c r="E329" t="s">
+        <v>285</v>
+      </c>
+      <c r="F329" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="H329" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>19004</v>
+      </c>
+      <c r="B330">
+        <v>2024</v>
+      </c>
+      <c r="E330" t="s">
+        <v>818</v>
+      </c>
+      <c r="F330" t="s">
+        <v>819</v>
+      </c>
+      <c r="H330" t="s">
+        <v>19</v>
+      </c>
+      <c r="I330" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>19007</v>
+      </c>
+      <c r="B331">
+        <v>2024</v>
+      </c>
+      <c r="E331" t="s">
+        <v>818</v>
+      </c>
+      <c r="F331" t="s">
+        <v>820</v>
+      </c>
+      <c r="H331" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I331" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>19016</v>
+      </c>
+      <c r="B332">
+        <v>2024</v>
+      </c>
+      <c r="E332" t="s">
+        <v>818</v>
+      </c>
+      <c r="F332" t="s">
+        <v>810</v>
+      </c>
+      <c r="H332" t="s">
+        <v>19</v>
+      </c>
+      <c r="I332" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>
